--- a/data/EpiClock_sheet.xlsx
+++ b/data/EpiClock_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17599\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A789D7-F7B6-4C11-9B5B-03CC854C028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3909B9-33EC-415F-AA94-ABB373B510B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15137" yWindow="4183" windowWidth="24686" windowHeight="13594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33017" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>Buccal swabs</t>
   </si>
   <si>
-    <t>(developmental aging process) Specific to pediatric buccal epithelial cells</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -234,9 +231,6 @@
   </si>
   <si>
     <t>Varies</t>
-  </si>
-  <si>
-    <t>the principle component version of PhenoAge</t>
   </si>
   <si>
     <r>
@@ -389,9 +383,6 @@
   </si>
   <si>
     <t>268 CpGs</t>
-  </si>
-  <si>
-    <t>quantitatively estimate mitotic age (total number of lifetime cell divisions) of a tissue using the stochastic replication errors accumulated in the epigenetic inheritance process during cell divisions</t>
   </si>
   <si>
     <t>https://www.columbia.edu/~sw2206/softwares.htm</t>
@@ -700,23 +691,10 @@
     <t>https://academic.oup.com/proteincell/article/15/8/575/7628460?login=false</t>
   </si>
   <si>
-    <t>Skinner</t>
-  </si>
-  <si>
-    <t>feature rectification</t>
-  </si>
-  <si>
     <t>https://link.springer.com/article/10.1007/s11357-024-01460-1</t>
   </si>
   <si>
-    <t>the principle component version of GrimAge</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 age/inflammation-assocaited biomarker composite, adjusted for chronological age </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>among the first to use Principal Component</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -800,6 +778,34 @@
   </si>
   <si>
     <t>#Features (CpGs)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Developmental aging process) Specific to pediatric buccal epithelial cells</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>The principle component version of PhenoAge</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Among the first to use principal component</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>The principle component version of GrimAge</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantitatively estimate mitotic age (total number of lifetime cell divisions) of a tissue using the stochastic replication errors accumulated in the epigenetic inheritance process during cell divisions</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR-mFSS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature Rectification</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1346,8 +1352,8 @@
   <dimension ref="A1:V994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1375,13 +1381,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1423,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H2" s="7">
         <v>2013</v>
@@ -1465,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H3" s="10">
         <v>2013</v>
@@ -1492,7 +1498,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -1504,7 +1510,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
@@ -1549,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H5" s="10">
         <v>2019</v>
@@ -1576,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1591,7 +1597,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>2018</v>
@@ -1717,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H9" s="10">
         <v>2020</v>
@@ -1759,7 +1765,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>2020</v>
@@ -1798,16 +1804,16 @@
         <v>94</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="10">
         <v>2020</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1825,7 +1831,7 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -1834,22 +1840,22 @@
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E12" s="5">
         <v>513</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7">
         <v>2018</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1867,7 +1873,7 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -1876,22 +1882,22 @@
         <v>18</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="10">
         <v>2022</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1909,7 +1915,7 @@
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -1918,20 +1924,20 @@
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="5">
         <v>1030</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="7">
         <v>2019</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1949,7 +1955,7 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -1958,16 +1964,16 @@
         <v>18</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="10">
         <v>2022</v>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
@@ -2000,22 +2006,22 @@
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5">
         <v>46</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>2020</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2033,7 +2039,7 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -2042,22 +2048,22 @@
         <v>9</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="9">
         <v>46</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="10">
         <v>2022</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2075,31 +2081,31 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>2024</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2117,31 +2123,31 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="F19" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H19" s="10">
         <v>2018</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="12"/>
@@ -2179,7 +2185,7 @@
         <v>2011</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="12"/>
@@ -2217,7 +2223,7 @@
         <v>2014</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="12"/>
@@ -2255,7 +2261,7 @@
         <v>2014</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="12"/>
@@ -2293,7 +2299,7 @@
         <v>2015</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="12"/>
@@ -2331,7 +2337,7 @@
         <v>2015</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2352,7 +2358,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -2361,19 +2367,19 @@
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H25" s="10">
         <v>2019</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2391,31 +2397,31 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
         <v>2016</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2433,31 +2439,31 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H27" s="10">
         <v>2020</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2475,31 +2481,31 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="G28" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="H28" s="7">
         <v>2020</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2517,29 +2523,29 @@
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H29" s="10">
         <v>2020</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2557,31 +2563,31 @@
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>2022</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2599,31 +2605,31 @@
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H31" s="10">
         <v>2024</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2641,7 +2647,7 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -2650,22 +2656,22 @@
         <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H32" s="7">
         <v>2019</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2683,31 +2689,31 @@
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E33" s="13">
         <v>1089</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H33" s="10">
         <v>2024</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2725,10 +2731,10 @@
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
@@ -2737,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="7"/>
@@ -2745,7 +2751,7 @@
         <v>2024</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2763,29 +2769,29 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10">
         <v>2015</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="7"/>
@@ -2823,7 +2829,7 @@
         <v>2016</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2841,29 +2847,29 @@
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10">
         <v>2016</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2881,29 +2887,29 @@
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7">
         <v>2011</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2921,29 +2927,29 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10">
         <v>2012</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2961,29 +2967,29 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7">
         <v>2023</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3001,7 +3007,7 @@
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>14</v>
@@ -3021,7 +3027,7 @@
         <v>2024</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -3039,31 +3045,31 @@
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H42" s="10">
         <v>2024</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3081,31 +3087,31 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E43" s="19">
         <v>999</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H43" s="10">
         <v>2024</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3123,31 +3129,31 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E44" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="G44" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H44" s="10">
         <v>2024</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
